--- a/va_facility_data_2025-02-20/Canton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Canton%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Canton VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Canton%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rec2af46d9e444ec4ba9fbc869a3d3049"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R1601d6353ff44f539b100c8d8a1e464a"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="Rc5c602530743449b80d2b8602334846d"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="R2c4282b6daca4c388b089f2deb3069d0"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra188b9b841a64a37b6c7ce7f333159a7"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R4b4230b7bf2e4626bb4b01ca7a3da585"/>
   </x:sheets>
 </x:workbook>
 </file>
